--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -24,11 +24,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,29 +47,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,15 +86,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,24 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,52 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,181 +198,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +390,72 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,72 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +488,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -959,20 +959,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12.7777777777778"/>
     <col min="3" max="11" width="18.6666666666667"/>
-    <col min="12" max="12" width="12.7777777777778"/>
+    <col min="12" max="20" width="12.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1009,32 @@
       <c r="L1" s="1">
         <v>43831.0694444444</v>
       </c>
+      <c r="M1" s="1">
+        <v>43831.0763888889</v>
+      </c>
+      <c r="N1" s="1">
+        <v>43831.0833333333</v>
+      </c>
+      <c r="O1" s="1">
+        <v>43831.0902777778</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43831.0972222222</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43831.1041666667</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43831.1111111111</v>
+      </c>
+      <c r="S1" s="1">
+        <v>43831.1180555556</v>
+      </c>
+      <c r="T1" s="1">
+        <v>43831.125</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1047,8 +1071,32 @@
       <c r="L2">
         <v>-0.866</v>
       </c>
+      <c r="M2">
+        <v>-0.5</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.866</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0.866</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1085,8 +1133,32 @@
       <c r="L3">
         <v>-0.866</v>
       </c>
+      <c r="M3">
+        <v>-0.5</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.866</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0.866</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1123,8 +1195,32 @@
       <c r="L4">
         <v>-0.866</v>
       </c>
+      <c r="M4">
+        <v>-0.5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.866</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.866</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1160,6 +1256,30 @@
       </c>
       <c r="L5">
         <v>-0.866</v>
+      </c>
+      <c r="M5">
+        <v>-0.5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.866</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.866</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
